--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2256462.723055635</v>
+        <v>2254049.81054983</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10689347.14596503</v>
+        <v>10689347.14596504</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9338206.629922865</v>
+        <v>9338206.629922867</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.7587050448881</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>259.0612366424577</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H11" t="n">
-        <v>247.632627768728</v>
+        <v>191.7549174328558</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247634</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.271684480034</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D13" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797667</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433874</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572828</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I13" t="n">
-        <v>49.3772837912456</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145482</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="14">
@@ -1616,13 +1616,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958326</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>77.1288187574997</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
         <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>236.8621683961343</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1783,7 +1783,7 @@
         <v>97.77987829572824</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>314.5096953211453</v>
+        <v>314.5096953211452</v>
       </c>
       <c r="C17" t="n">
-        <v>297.0487454286723</v>
+        <v>110.9843290728841</v>
       </c>
       <c r="D17" t="n">
-        <v>286.4588952783477</v>
+        <v>286.4588952783475</v>
       </c>
       <c r="E17" t="n">
-        <v>313.7062237299265</v>
+        <v>313.7062237299264</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>338.651899399376</v>
       </c>
       <c r="G17" t="n">
-        <v>342.6975793111181</v>
+        <v>342.697579311118</v>
       </c>
       <c r="H17" t="n">
-        <v>226.3836180449852</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.96361544584056</v>
+        <v>40.96361544584039</v>
       </c>
       <c r="T17" t="n">
-        <v>61.89768879588634</v>
+        <v>135.6938237972847</v>
       </c>
       <c r="U17" t="n">
-        <v>182.7710256165667</v>
+        <v>182.7710256165665</v>
       </c>
       <c r="V17" t="n">
-        <v>259.5281121277997</v>
+        <v>259.5281121277995</v>
       </c>
       <c r="W17" t="n">
-        <v>281.0168223750777</v>
+        <v>281.0168223750776</v>
       </c>
       <c r="X17" t="n">
-        <v>301.5069543361337</v>
+        <v>301.5069543361336</v>
       </c>
       <c r="Y17" t="n">
-        <v>318.0137923137183</v>
+        <v>318.0137923137182</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.607833839602</v>
+        <v>111.6078338396019</v>
       </c>
       <c r="C19" t="n">
-        <v>99.02267475629256</v>
+        <v>99.0226747562924</v>
       </c>
       <c r="D19" t="n">
-        <v>80.39132667587708</v>
+        <v>80.39132667587693</v>
       </c>
       <c r="E19" t="n">
-        <v>78.2098163042339</v>
+        <v>78.20981630423374</v>
       </c>
       <c r="F19" t="n">
-        <v>77.19690168059597</v>
+        <v>77.19690168059581</v>
       </c>
       <c r="G19" t="n">
-        <v>97.80166191669295</v>
+        <v>97.80166191669279</v>
       </c>
       <c r="H19" t="n">
-        <v>76.53086857198551</v>
+        <v>76.53086857198535</v>
       </c>
       <c r="I19" t="n">
-        <v>28.12827406750282</v>
+        <v>28.12827406750267</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.70800632771206</v>
+        <v>20.7080063277119</v>
       </c>
       <c r="S19" t="n">
-        <v>121.5448789891066</v>
+        <v>121.5448789891065</v>
       </c>
       <c r="T19" t="n">
-        <v>151.3248029338339</v>
+        <v>151.3248029338338</v>
       </c>
       <c r="U19" t="n">
-        <v>217.9876918632776</v>
+        <v>217.9876918632774</v>
       </c>
       <c r="V19" t="n">
-        <v>183.9134969814927</v>
+        <v>183.9134969814926</v>
       </c>
       <c r="W19" t="n">
-        <v>218.2988519942557</v>
+        <v>218.2988519942556</v>
       </c>
       <c r="X19" t="n">
-        <v>157.4855090467019</v>
+        <v>157.4855090467017</v>
       </c>
       <c r="Y19" t="n">
-        <v>150.3605070097595</v>
+        <v>150.3605070097594</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>314.5096953211453</v>
+        <v>314.5096953211452</v>
       </c>
       <c r="C20" t="n">
-        <v>297.0487454286723</v>
+        <v>297.0487454286722</v>
       </c>
       <c r="D20" t="n">
-        <v>286.4588952783477</v>
+        <v>286.4588952783476</v>
       </c>
       <c r="E20" t="n">
-        <v>313.7062237299265</v>
+        <v>313.7062237299264</v>
       </c>
       <c r="F20" t="n">
         <v>338.6518993993761</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>231.7564992464774</v>
       </c>
       <c r="H20" t="n">
-        <v>156.6331629553286</v>
+        <v>226.3836180449851</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.96361544584056</v>
+        <v>40.96361544584046</v>
       </c>
       <c r="T20" t="n">
-        <v>135.6938237972849</v>
+        <v>135.6938237972848</v>
       </c>
       <c r="U20" t="n">
-        <v>182.7710256165667</v>
+        <v>182.7710256165666</v>
       </c>
       <c r="V20" t="n">
-        <v>259.5281121277997</v>
+        <v>259.5281121277995</v>
       </c>
       <c r="W20" t="n">
         <v>281.0168223750777</v>
       </c>
       <c r="X20" t="n">
-        <v>301.5069543361337</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>318.0137923137183</v>
+        <v>318.0137923137182</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>111.607833839602</v>
+        <v>111.6078338396019</v>
       </c>
       <c r="C22" t="n">
-        <v>99.02267475629256</v>
+        <v>99.02267475629247</v>
       </c>
       <c r="D22" t="n">
-        <v>80.39132667587708</v>
+        <v>80.391326675877</v>
       </c>
       <c r="E22" t="n">
-        <v>78.2098163042339</v>
+        <v>78.20981630423381</v>
       </c>
       <c r="F22" t="n">
-        <v>77.19690168059597</v>
+        <v>77.19690168059589</v>
       </c>
       <c r="G22" t="n">
-        <v>97.80166191669295</v>
+        <v>97.80166191669286</v>
       </c>
       <c r="H22" t="n">
-        <v>76.53086857198551</v>
+        <v>76.53086857198542</v>
       </c>
       <c r="I22" t="n">
-        <v>28.12827406750282</v>
+        <v>28.12827406750274</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.70800632771206</v>
+        <v>20.70800632771197</v>
       </c>
       <c r="S22" t="n">
-        <v>121.5448789891066</v>
+        <v>121.5448789891065</v>
       </c>
       <c r="T22" t="n">
-        <v>151.3248029338339</v>
+        <v>151.3248029338338</v>
       </c>
       <c r="U22" t="n">
-        <v>217.9876918632776</v>
+        <v>217.9876918632775</v>
       </c>
       <c r="V22" t="n">
-        <v>183.9134969814927</v>
+        <v>183.9134969814926</v>
       </c>
       <c r="W22" t="n">
-        <v>218.2988519942557</v>
+        <v>218.2988519942556</v>
       </c>
       <c r="X22" t="n">
-        <v>157.4855090467019</v>
+        <v>157.4855090467018</v>
       </c>
       <c r="Y22" t="n">
-        <v>150.3605070097595</v>
+        <v>150.3605070097594</v>
       </c>
     </row>
     <row r="23">
@@ -2327,10 +2327,10 @@
         <v>313.7062237299265</v>
       </c>
       <c r="F23" t="n">
-        <v>338.6518993993761</v>
+        <v>338.6518993993762</v>
       </c>
       <c r="G23" t="n">
-        <v>342.6975793111181</v>
+        <v>342.6975793111182</v>
       </c>
       <c r="H23" t="n">
         <v>226.3836180449852</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.96361544584057</v>
+        <v>40.9636154458406</v>
       </c>
       <c r="T23" t="n">
         <v>135.6938237972849</v>
@@ -2378,10 +2378,10 @@
         <v>259.5281121277997</v>
       </c>
       <c r="W23" t="n">
-        <v>281.0168223750777</v>
+        <v>281.0168223750778</v>
       </c>
       <c r="X23" t="n">
-        <v>301.5069543361337</v>
+        <v>301.5069543361338</v>
       </c>
       <c r="Y23" t="n">
         <v>318.0137923137183</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824764</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.607833839602</v>
+        <v>111.6078338396021</v>
       </c>
       <c r="C25" t="n">
-        <v>99.02267475629256</v>
+        <v>99.02267475629259</v>
       </c>
       <c r="D25" t="n">
-        <v>80.39132667587708</v>
+        <v>80.39132667587711</v>
       </c>
       <c r="E25" t="n">
-        <v>78.2098163042339</v>
+        <v>78.20981630423393</v>
       </c>
       <c r="F25" t="n">
-        <v>77.19690168059597</v>
+        <v>77.196901680596</v>
       </c>
       <c r="G25" t="n">
-        <v>97.80166191669295</v>
+        <v>97.80166191669298</v>
       </c>
       <c r="H25" t="n">
-        <v>76.53086857198551</v>
+        <v>76.53086857198554</v>
       </c>
       <c r="I25" t="n">
-        <v>28.12827406750284</v>
+        <v>28.12827406750286</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.70800632771207</v>
+        <v>20.7080063277121</v>
       </c>
       <c r="S25" t="n">
         <v>121.5448789891066</v>
       </c>
       <c r="T25" t="n">
-        <v>151.3248029338339</v>
+        <v>151.324802933834</v>
       </c>
       <c r="U25" t="n">
         <v>217.9876918632776</v>
       </c>
       <c r="V25" t="n">
-        <v>183.9134969814927</v>
+        <v>183.9134969814928</v>
       </c>
       <c r="W25" t="n">
-        <v>218.2988519942557</v>
+        <v>218.2988519942558</v>
       </c>
       <c r="X25" t="n">
         <v>157.4855090467019</v>
@@ -2570,7 +2570,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687285</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247659</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3044,7 +3044,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210277</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988205</v>
@@ -3095,7 +3095,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247659</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797666</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I34" t="n">
-        <v>49.3772837912456</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145484</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007097</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052281</v>
+        <v>111.7690391349156</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G37" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H37" t="n">
-        <v>99.36210032693431</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333687</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775078</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D40" t="n">
-        <v>93.13769105450123</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E40" t="n">
         <v>48.74924241846415</v>
@@ -3676,10 +3676,10 @@
         <v>68.3410880309232</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621576</v>
+        <v>99.36210032693454</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333687</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775078</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>154.452923095723</v>
@@ -3724,10 +3724,10 @@
         <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>310.7752483302254</v>
+        <v>310.7752483302255</v>
       </c>
       <c r="C41" t="n">
-        <v>293.3142984377523</v>
+        <v>293.3142984377524</v>
       </c>
       <c r="D41" t="n">
-        <v>282.7244482874278</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>309.9717767390066</v>
+        <v>309.9717767390067</v>
       </c>
       <c r="F41" t="n">
-        <v>334.9174524084563</v>
+        <v>257.476124167986</v>
       </c>
       <c r="G41" t="n">
-        <v>338.9631323201983</v>
+        <v>338.9631323201984</v>
       </c>
       <c r="H41" t="n">
-        <v>222.6491710540652</v>
+        <v>222.6491710540654</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>37.22916845492075</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>131.9593768063651</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>179.0365786256469</v>
       </c>
       <c r="V41" t="n">
-        <v>243.8530124959144</v>
+        <v>255.7936651368798</v>
       </c>
       <c r="W41" t="n">
-        <v>277.2823753841578</v>
+        <v>277.2823753841579</v>
       </c>
       <c r="X41" t="n">
-        <v>297.7725073452139</v>
+        <v>297.772507345214</v>
       </c>
       <c r="Y41" t="n">
-        <v>314.2793453227983</v>
+        <v>314.2793453227985</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.8733868486821</v>
+        <v>107.8733868486822</v>
       </c>
       <c r="C43" t="n">
-        <v>95.28822776537262</v>
+        <v>95.28822776537274</v>
       </c>
       <c r="D43" t="n">
-        <v>76.65687968495715</v>
+        <v>76.65687968495726</v>
       </c>
       <c r="E43" t="n">
-        <v>74.47536931331396</v>
+        <v>74.47536931331408</v>
       </c>
       <c r="F43" t="n">
-        <v>73.46245468967604</v>
+        <v>73.46245468967615</v>
       </c>
       <c r="G43" t="n">
-        <v>94.06721492577302</v>
+        <v>94.06721492577313</v>
       </c>
       <c r="H43" t="n">
-        <v>104.2090778166073</v>
+        <v>72.79642158106569</v>
       </c>
       <c r="I43" t="n">
-        <v>24.3938270765829</v>
+        <v>24.39382707658302</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>16.97355933679214</v>
+        <v>16.97355933679225</v>
       </c>
       <c r="S43" t="n">
-        <v>117.8104319981867</v>
+        <v>149.223088233727</v>
       </c>
       <c r="T43" t="n">
-        <v>147.590355942914</v>
+        <v>147.5903559429141</v>
       </c>
       <c r="U43" t="n">
-        <v>214.2532448723576</v>
+        <v>214.2532448723578</v>
       </c>
       <c r="V43" t="n">
-        <v>180.1790499905728</v>
+        <v>180.1790499905729</v>
       </c>
       <c r="W43" t="n">
-        <v>214.5644050033358</v>
+        <v>214.5644050033359</v>
       </c>
       <c r="X43" t="n">
-        <v>153.7510620557819</v>
+        <v>153.7510620557821</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.6260600188396</v>
+        <v>146.6260600188397</v>
       </c>
     </row>
     <row r="44">
@@ -3977,13 +3977,13 @@
         <v>310.7752483302254</v>
       </c>
       <c r="C44" t="n">
-        <v>293.3142984377523</v>
+        <v>293.3142984377524</v>
       </c>
       <c r="D44" t="n">
         <v>282.7244482874278</v>
       </c>
       <c r="E44" t="n">
-        <v>309.9717767390066</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>334.9174524084563</v>
@@ -3992,7 +3992,7 @@
         <v>338.9631323201983</v>
       </c>
       <c r="H44" t="n">
-        <v>222.6491710540652</v>
+        <v>172.4551712651744</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.22916845492064</v>
+        <v>37.2291684549207</v>
       </c>
       <c r="T44" t="n">
-        <v>27.58726541534736</v>
+        <v>131.959376806365</v>
       </c>
       <c r="U44" t="n">
         <v>179.0365786256468</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>255.7936651368798</v>
       </c>
       <c r="W44" t="n">
         <v>277.2823753841578</v>
@@ -4043,7 +4043,7 @@
         <v>297.7725073452139</v>
       </c>
       <c r="Y44" t="n">
-        <v>314.2793453227983</v>
+        <v>314.2793453227985</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>107.8733868486821</v>
       </c>
       <c r="C46" t="n">
-        <v>95.28822776537262</v>
+        <v>95.28822776537268</v>
       </c>
       <c r="D46" t="n">
-        <v>76.65687968495715</v>
+        <v>76.6568796849572</v>
       </c>
       <c r="E46" t="n">
-        <v>105.8880255488557</v>
+        <v>74.47536931331402</v>
       </c>
       <c r="F46" t="n">
-        <v>73.46245468967604</v>
+        <v>73.46245468967609</v>
       </c>
       <c r="G46" t="n">
-        <v>94.06721492577302</v>
+        <v>94.06721492577307</v>
       </c>
       <c r="H46" t="n">
-        <v>72.79642158106557</v>
+        <v>72.79642158106563</v>
       </c>
       <c r="I46" t="n">
-        <v>24.3938270765829</v>
+        <v>24.39382707658296</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.97355933679214</v>
+        <v>16.97355933679219</v>
       </c>
       <c r="S46" t="n">
         <v>117.8104319981867</v>
@@ -4189,7 +4189,7 @@
         <v>147.590355942914</v>
       </c>
       <c r="U46" t="n">
-        <v>214.2532448723576</v>
+        <v>214.2532448723577</v>
       </c>
       <c r="V46" t="n">
         <v>180.1790499905728</v>
@@ -4198,7 +4198,7 @@
         <v>214.5644050033358</v>
       </c>
       <c r="X46" t="n">
-        <v>153.7510620557819</v>
+        <v>185.1637182913227</v>
       </c>
       <c r="Y46" t="n">
         <v>146.6260600188396</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1647.821809384542</v>
+        <v>1640.517726580259</v>
       </c>
       <c r="C11" t="n">
-        <v>1647.821809384542</v>
+        <v>1640.517726580259</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.143792573978</v>
+        <v>1329.701660921582</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>991.3630412714111</v>
       </c>
       <c r="F11" t="n">
-        <v>684.268901082273</v>
+        <v>627.8267694298769</v>
       </c>
       <c r="G11" t="n">
-        <v>316.646083875343</v>
+        <v>260.2039522229468</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084337</v>
       </c>
       <c r="T11" t="n">
-        <v>3167.077706941466</v>
+        <v>3104.236671416632</v>
       </c>
       <c r="U11" t="n">
-        <v>2960.996863163376</v>
+        <v>2898.155827638542</v>
       </c>
       <c r="V11" t="n">
-        <v>2960.996863163376</v>
+        <v>2614.542573243045</v>
       </c>
       <c r="W11" t="n">
-        <v>2655.677840841336</v>
+        <v>2309.223550921004</v>
       </c>
       <c r="X11" t="n">
-        <v>2329.661715528329</v>
+        <v>1983.207425607997</v>
       </c>
       <c r="Y11" t="n">
-        <v>1986.97201650059</v>
+        <v>1640.517726580259</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,34 +5136,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052933</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C13" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770416</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998338</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337111</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5233,7 +5233,7 @@
         <v>1696.750338179562</v>
       </c>
       <c r="V13" t="n">
-        <v>1489.515482921748</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
         <v>1247.547945832861</v>
@@ -5242,7 +5242,7 @@
         <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874597</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2018.472742224994</v>
+        <v>1404.8025029403</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.959858232656</v>
+        <v>1083.289618947962</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573979</v>
+        <v>772.4735532892847</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923808</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822735</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G14" t="n">
-        <v>316.646083875343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5288,40 +5288,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084341</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416636</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U14" t="n">
-        <v>3104.236671416636</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>3026.328773681788</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>3026.328773681788</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X14" t="n">
-        <v>2700.312648368781</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y14" t="n">
-        <v>2357.622949341043</v>
+        <v>1743.952710056349</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332754</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F16" t="n">
-        <v>335.408918177041</v>
+        <v>335.4089181770412</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998333</v>
+        <v>215.1557144998335</v>
       </c>
       <c r="H16" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>158.1401341315255</v>
@@ -5440,7 +5440,7 @@
         <v>408.6327023328084</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337111</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5452,34 +5452,34 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
         <v>2299.337630107746</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T16" t="n">
         <v>1938.403572105846</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1547.618239455466</v>
+        <v>1473.076688949004</v>
       </c>
       <c r="C17" t="n">
-        <v>1247.569001648726</v>
+        <v>1360.971306047101</v>
       </c>
       <c r="D17" t="n">
-        <v>958.216582175648</v>
+        <v>1071.618886574022</v>
       </c>
       <c r="E17" t="n">
-        <v>641.3416087110757</v>
+        <v>754.7439131094502</v>
       </c>
       <c r="F17" t="n">
-        <v>641.3416087110757</v>
+        <v>412.6712874535148</v>
       </c>
       <c r="G17" t="n">
-        <v>295.1824376897442</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218343</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3284.228432269938</v>
+        <v>3284.228432269939</v>
       </c>
       <c r="T17" t="n">
-        <v>3221.705514294295</v>
+        <v>3147.163963787833</v>
       </c>
       <c r="U17" t="n">
-        <v>3037.088316701804</v>
+        <v>2962.546766195341</v>
       </c>
       <c r="V17" t="n">
-        <v>2774.938708491905</v>
+        <v>2700.397157985443</v>
       </c>
       <c r="W17" t="n">
-        <v>2491.083332355463</v>
+        <v>2416.541781849001</v>
       </c>
       <c r="X17" t="n">
-        <v>2186.530853228056</v>
+        <v>2111.989302721593</v>
       </c>
       <c r="Y17" t="n">
-        <v>1865.304800385916</v>
+        <v>1790.763249879453</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>609.2207265061035</v>
+        <v>609.2207265061023</v>
       </c>
       <c r="C19" t="n">
-        <v>509.1978227118685</v>
+        <v>509.1978227118676</v>
       </c>
       <c r="D19" t="n">
-        <v>427.9944624332048</v>
+        <v>427.994462433204</v>
       </c>
       <c r="E19" t="n">
-        <v>348.9946479844837</v>
+        <v>348.9946479844831</v>
       </c>
       <c r="F19" t="n">
-        <v>271.0179796202453</v>
+        <v>271.0179796202449</v>
       </c>
       <c r="G19" t="n">
-        <v>172.2284221286363</v>
+        <v>172.228422128636</v>
       </c>
       <c r="H19" t="n">
-        <v>94.92451448016608</v>
+        <v>94.92451448016593</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5674,49 +5674,49 @@
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>344.2466748776686</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>660.8064733261647</v>
+        <v>660.8064733261626</v>
       </c>
       <c r="M19" t="n">
-        <v>1004.963518925714</v>
+        <v>1004.963518925712</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.371895631578</v>
+        <v>1346.371895631576</v>
       </c>
       <c r="O19" t="n">
-        <v>1645.701494551992</v>
+        <v>1645.70149455199</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.308994985651</v>
+        <v>1878.308994985649</v>
       </c>
       <c r="Q19" t="n">
-        <v>1955.919291138166</v>
+        <v>1955.919291138164</v>
       </c>
       <c r="R19" t="n">
-        <v>1935.002113029366</v>
+        <v>1935.002113029364</v>
       </c>
       <c r="S19" t="n">
-        <v>1812.229507989864</v>
+        <v>1812.229507989863</v>
       </c>
       <c r="T19" t="n">
-        <v>1659.376171693062</v>
+        <v>1659.376171693061</v>
       </c>
       <c r="U19" t="n">
-        <v>1439.186583952378</v>
+        <v>1439.186583952376</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.415374880163</v>
+        <v>1253.415374880162</v>
       </c>
       <c r="W19" t="n">
-        <v>1032.911483976874</v>
+        <v>1032.911483976873</v>
       </c>
       <c r="X19" t="n">
-        <v>873.8352122125292</v>
+        <v>873.8352122125278</v>
       </c>
       <c r="Y19" t="n">
-        <v>721.9559122026711</v>
+        <v>721.9559122026699</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1473.076688949002</v>
+        <v>1777.629168076411</v>
       </c>
       <c r="C20" t="n">
-        <v>1173.027451142263</v>
+        <v>1477.579930269671</v>
       </c>
       <c r="D20" t="n">
-        <v>883.6750316691846</v>
+        <v>1188.227510796593</v>
       </c>
       <c r="E20" t="n">
-        <v>566.8000582046124</v>
+        <v>871.352537332021</v>
       </c>
       <c r="F20" t="n">
-        <v>224.727432548677</v>
+        <v>529.2799116760856</v>
       </c>
       <c r="G20" t="n">
-        <v>224.727432548677</v>
+        <v>295.1824376897441</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218343</v>
@@ -5750,10 +5750,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5762,13 +5762,13 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052369</v>
@@ -5777,10 +5777,10 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3284.228432269938</v>
+        <v>3284.228432269939</v>
       </c>
       <c r="T20" t="n">
-        <v>3147.163963787832</v>
+        <v>3147.163963787833</v>
       </c>
       <c r="U20" t="n">
         <v>2962.546766195341</v>
@@ -5792,10 +5792,10 @@
         <v>2416.541781849</v>
       </c>
       <c r="X20" t="n">
-        <v>2111.989302721592</v>
+        <v>2416.541781849</v>
       </c>
       <c r="Y20" t="n">
-        <v>1790.763249879452</v>
+        <v>2095.315729006861</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E21" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158126</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>609.2207265061035</v>
+        <v>609.2207265061029</v>
       </c>
       <c r="C22" t="n">
-        <v>509.1978227118685</v>
+        <v>509.197822711868</v>
       </c>
       <c r="D22" t="n">
-        <v>427.9944624332048</v>
+        <v>427.9944624332044</v>
       </c>
       <c r="E22" t="n">
-        <v>348.9946479844837</v>
+        <v>348.9946479844833</v>
       </c>
       <c r="F22" t="n">
-        <v>271.0179796202453</v>
+        <v>271.0179796202451</v>
       </c>
       <c r="G22" t="n">
-        <v>172.2284221286363</v>
+        <v>172.2284221286361</v>
       </c>
       <c r="H22" t="n">
-        <v>94.92451448016608</v>
+        <v>94.924514480166</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
@@ -5914,46 +5914,46 @@
         <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>660.8064733261647</v>
+        <v>660.8064733261635</v>
       </c>
       <c r="M22" t="n">
-        <v>1004.963518925714</v>
+        <v>1004.963518925713</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.371895631578</v>
+        <v>1346.371895631577</v>
       </c>
       <c r="O22" t="n">
-        <v>1645.701494551992</v>
+        <v>1645.701494551991</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.308994985651</v>
+        <v>1878.30899498565</v>
       </c>
       <c r="Q22" t="n">
-        <v>1955.919291138166</v>
+        <v>1955.919291138165</v>
       </c>
       <c r="R22" t="n">
-        <v>1935.002113029366</v>
+        <v>1935.002113029365</v>
       </c>
       <c r="S22" t="n">
-        <v>1812.229507989864</v>
+        <v>1812.229507989863</v>
       </c>
       <c r="T22" t="n">
-        <v>1659.376171693062</v>
+        <v>1659.376171693061</v>
       </c>
       <c r="U22" t="n">
-        <v>1439.186583952378</v>
+        <v>1439.186583952377</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.415374880163</v>
+        <v>1253.415374880162</v>
       </c>
       <c r="W22" t="n">
         <v>1032.911483976874</v>
       </c>
       <c r="X22" t="n">
-        <v>873.8352122125292</v>
+        <v>873.8352122125286</v>
       </c>
       <c r="Y22" t="n">
-        <v>721.9559122026711</v>
+        <v>721.9559122026706</v>
       </c>
     </row>
     <row r="23">
@@ -5981,10 +5981,10 @@
         <v>303.6847678155075</v>
       </c>
       <c r="H23" t="n">
-        <v>75.01444655794667</v>
+        <v>75.01444655794668</v>
       </c>
       <c r="I23" t="n">
-        <v>75.01444655794667</v>
+        <v>75.01444655794668</v>
       </c>
       <c r="J23" t="n">
         <v>263.8935775169721</v>
@@ -5993,40 +5993,40 @@
         <v>597.7129512068184</v>
       </c>
       <c r="L23" t="n">
-        <v>1088.369161167509</v>
+        <v>1048.747164455227</v>
       </c>
       <c r="M23" t="n">
-        <v>1621.901065839434</v>
+        <v>1582.279069127151</v>
       </c>
       <c r="N23" t="n">
-        <v>2168.679882898216</v>
+        <v>2129.057886185933</v>
       </c>
       <c r="O23" t="n">
-        <v>3048.644533227671</v>
+        <v>2632.03035706527</v>
       </c>
       <c r="P23" t="n">
-        <v>3443.418899584849</v>
+        <v>3168.167803157291</v>
       </c>
       <c r="Q23" t="n">
-        <v>3691.705261340531</v>
+        <v>3626.646005666279</v>
       </c>
       <c r="R23" t="n">
-        <v>3750.722327897333</v>
+        <v>3750.722327897334</v>
       </c>
       <c r="S23" t="n">
-        <v>3709.3449385581</v>
+        <v>3709.344938558101</v>
       </c>
       <c r="T23" t="n">
-        <v>3572.280470075994</v>
+        <v>3572.280470075995</v>
       </c>
       <c r="U23" t="n">
-        <v>3387.663272483502</v>
+        <v>3387.663272483503</v>
       </c>
       <c r="V23" t="n">
-        <v>3125.513664273603</v>
+        <v>3125.513664273604</v>
       </c>
       <c r="W23" t="n">
-        <v>2841.658288137161</v>
+        <v>2841.658288137162</v>
       </c>
       <c r="X23" t="n">
         <v>2537.105809009754</v>
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>950.0461846068719</v>
+        <v>950.0461846068708</v>
       </c>
       <c r="C24" t="n">
-        <v>775.5931553257449</v>
+        <v>775.5931553257439</v>
       </c>
       <c r="D24" t="n">
-        <v>626.6587456644936</v>
+        <v>626.6587456644926</v>
       </c>
       <c r="E24" t="n">
-        <v>467.4212906590382</v>
+        <v>467.4212906590371</v>
       </c>
       <c r="F24" t="n">
-        <v>320.8867326859231</v>
+        <v>320.8867326859221</v>
       </c>
       <c r="G24" t="n">
-        <v>184.5236325185412</v>
+        <v>184.5236325185402</v>
       </c>
       <c r="H24" t="n">
-        <v>94.02173815640873</v>
+        <v>94.02173815640769</v>
       </c>
       <c r="I24" t="n">
-        <v>75.01444655794667</v>
+        <v>75.01444655794668</v>
       </c>
       <c r="J24" t="n">
-        <v>168.6917160485639</v>
+        <v>168.691716048564</v>
       </c>
       <c r="K24" t="n">
         <v>406.955915028911</v>
@@ -6090,28 +6090,28 @@
         <v>2573.555872659103</v>
       </c>
       <c r="R24" t="n">
-        <v>2573.41151925162</v>
+        <v>2573.411519251619</v>
       </c>
       <c r="S24" t="n">
-        <v>2443.9736327451</v>
+        <v>2443.973632745099</v>
       </c>
       <c r="T24" t="n">
-        <v>2251.330632422955</v>
+        <v>2251.330632422954</v>
       </c>
       <c r="U24" t="n">
-        <v>2023.262785557371</v>
+        <v>2023.26278555737</v>
       </c>
       <c r="V24" t="n">
-        <v>1788.110677325628</v>
+        <v>1788.110677325627</v>
       </c>
       <c r="W24" t="n">
-        <v>1533.873320597427</v>
+        <v>1533.873320597426</v>
       </c>
       <c r="X24" t="n">
-        <v>1326.021820391894</v>
+        <v>1326.021820391893</v>
       </c>
       <c r="Y24" t="n">
-        <v>1118.26152162694</v>
+        <v>1118.261521626939</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>617.7230566318667</v>
+        <v>617.7230566318669</v>
       </c>
       <c r="C25" t="n">
-        <v>517.7001528376318</v>
+        <v>517.700152837632</v>
       </c>
       <c r="D25" t="n">
-        <v>436.4967925589681</v>
+        <v>436.4967925589682</v>
       </c>
       <c r="E25" t="n">
-        <v>357.496978110247</v>
+        <v>357.4969781102471</v>
       </c>
       <c r="F25" t="n">
-        <v>279.5203097460086</v>
+        <v>279.5203097460087</v>
       </c>
       <c r="G25" t="n">
-        <v>180.7307522543995</v>
+        <v>180.7307522543996</v>
       </c>
       <c r="H25" t="n">
-        <v>103.4268446059293</v>
+        <v>103.4268446059294</v>
       </c>
       <c r="I25" t="n">
-        <v>75.01444655794667</v>
+        <v>75.01444655794668</v>
       </c>
       <c r="J25" t="n">
         <v>120.1370790048822</v>
@@ -6151,10 +6151,10 @@
         <v>324.1242619537585</v>
       </c>
       <c r="L25" t="n">
-        <v>640.6840604022545</v>
+        <v>640.6840604022547</v>
       </c>
       <c r="M25" t="n">
-        <v>984.8411060018035</v>
+        <v>984.8411060018036</v>
       </c>
       <c r="N25" t="n">
         <v>1326.249482707668</v>
@@ -6163,13 +6163,13 @@
         <v>1625.579081628081</v>
       </c>
       <c r="P25" t="n">
-        <v>1886.811325111415</v>
+        <v>1858.186582061741</v>
       </c>
       <c r="Q25" t="n">
-        <v>1964.421621263929</v>
+        <v>1964.42162126393</v>
       </c>
       <c r="R25" t="n">
-        <v>1943.504443155129</v>
+        <v>1943.50444315513</v>
       </c>
       <c r="S25" t="n">
         <v>1820.731838115628</v>
@@ -6178,7 +6178,7 @@
         <v>1667.878501818826</v>
       </c>
       <c r="U25" t="n">
-        <v>1447.688914078141</v>
+        <v>1447.688914078142</v>
       </c>
       <c r="V25" t="n">
         <v>1261.917705005927</v>
@@ -6187,10 +6187,10 @@
         <v>1041.413814102638</v>
       </c>
       <c r="X25" t="n">
-        <v>882.3375423382925</v>
+        <v>882.3375423382929</v>
       </c>
       <c r="Y25" t="n">
-        <v>730.4582423284344</v>
+        <v>730.4582423284347</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>698.9037015467793</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398493</v>
       </c>
       <c r="H26" t="n">
         <v>81.14691689668916</v>
@@ -6230,10 +6230,10 @@
         <v>603.8454215455608</v>
       </c>
       <c r="L26" t="n">
-        <v>1468.364237198915</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.89614187084</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N26" t="n">
         <v>2852.295579285459</v>
@@ -6269,7 +6269,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456135</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644865</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032353</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977798</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246648</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572829</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951504</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
         <v>81.14691689668916</v>
@@ -6315,37 +6315,37 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T27" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U27" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V27" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W27" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
         <v>1124.393991965682</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I28" t="n">
         <v>81.14691689668916</v>
@@ -6388,7 +6388,7 @@
         <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6412,7 +6412,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>810.872990474187</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1261.907203722596</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M29" t="n">
-        <v>2240.457506552424</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N29" t="n">
-        <v>2787.236323611206</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O29" t="n">
-        <v>3290.208794490543</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
-        <v>3684.983160847721</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
@@ -6494,16 +6494,16 @@
         <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
@@ -6540,28 +6540,28 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
         <v>2579.543989590362</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643392</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6640,22 +6640,22 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6677,16 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6707,13 +6707,13 @@
         <v>1054.879634793969</v>
       </c>
       <c r="M32" t="n">
-        <v>1872.543307058812</v>
+        <v>1986.936041136909</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285459</v>
+        <v>2533.714858195691</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164796</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P32" t="n">
         <v>3750.042416521973</v>
@@ -6743,7 +6743,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I33" t="n">
         <v>81.14691689668916</v>
@@ -6783,43 +6783,43 @@
         <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U33" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y33" t="n">
         <v>1124.393991965682</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899659</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913837</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415466</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643389</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302699</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973142</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982168</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464974</v>
+        <v>894.139768046498</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307338</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6947,40 +6947,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515857</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7020,7 +7020,7 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7029,7 +7029,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
         <v>2407.411984886741</v>
@@ -7047,7 +7047,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>749.7479478441292</v>
+        <v>543.5641013650702</v>
       </c>
       <c r="C37" t="n">
-        <v>679.4831994900657</v>
+        <v>430.6660820368726</v>
       </c>
       <c r="D37" t="n">
-        <v>529.3665600777299</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E37" t="n">
-        <v>480.1249010691803</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F37" t="n">
-        <v>333.2349535712699</v>
+        <v>183.0892706919201</v>
       </c>
       <c r="G37" t="n">
-        <v>264.2035515198323</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1744.44964124669</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1621.35446039006</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U37" t="n">
-        <v>1430.923028089547</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V37" t="n">
-        <v>1274.909974457503</v>
+        <v>1266.068997126131</v>
       </c>
       <c r="W37" t="n">
-        <v>1084.164238994386</v>
+        <v>976.6518270891706</v>
       </c>
       <c r="X37" t="n">
-        <v>954.846122670212</v>
+        <v>748.6622761911533</v>
       </c>
       <c r="Y37" t="n">
-        <v>832.7249781005254</v>
+        <v>626.5411316214665</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
@@ -7157,67 +7157,67 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464976</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5641013650707</v>
+        <v>552.4050786964424</v>
       </c>
       <c r="C40" t="n">
-        <v>374.6279184371638</v>
+        <v>482.1403303423789</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245363</v>
+        <v>430.6951255038867</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159866</v>
+        <v>381.453466495337</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919197</v>
+        <v>333.2349535712701</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404821</v>
+        <v>264.2035515198326</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332018</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V40" t="n">
-        <v>1364.740431699975</v>
+        <v>1077.567105309816</v>
       </c>
       <c r="W40" t="n">
-        <v>1173.994696236858</v>
+        <v>886.8213698466991</v>
       </c>
       <c r="X40" t="n">
-        <v>946.0051453388405</v>
+        <v>757.5032535225253</v>
       </c>
       <c r="Y40" t="n">
-        <v>725.2125661953104</v>
+        <v>635.3821089528386</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1867.05785304522</v>
+        <v>1503.254038370576</v>
       </c>
       <c r="C41" t="n">
-        <v>1570.780783916177</v>
+        <v>1206.976969241533</v>
       </c>
       <c r="D41" t="n">
-        <v>1285.200533120796</v>
+        <v>1206.976969241533</v>
       </c>
       <c r="E41" t="n">
-        <v>972.0977283339204</v>
+        <v>893.8741644546578</v>
       </c>
       <c r="F41" t="n">
-        <v>633.7972713556817</v>
+        <v>633.7972713556821</v>
       </c>
       <c r="G41" t="n">
-        <v>291.4102690120473</v>
+        <v>291.4102690120475</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3288.000600947635</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3154.708301143226</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>2973.86327222843</v>
       </c>
       <c r="V41" t="n">
-        <v>3079.289647370872</v>
+        <v>2715.485832696228</v>
       </c>
       <c r="W41" t="n">
-        <v>2799.206439912127</v>
+        <v>2435.402625237483</v>
       </c>
       <c r="X41" t="n">
-        <v>2498.426129462416</v>
+        <v>2134.622314787772</v>
       </c>
       <c r="Y41" t="n">
-        <v>2180.972245297973</v>
+        <v>1817.168430623329</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7500,40 +7500,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>614.5455015557015</v>
+        <v>582.8155457622258</v>
       </c>
       <c r="C43" t="n">
-        <v>518.2947664391636</v>
+        <v>486.5648106456878</v>
       </c>
       <c r="D43" t="n">
-        <v>440.8635748381968</v>
+        <v>409.1336190447208</v>
       </c>
       <c r="E43" t="n">
-        <v>365.6359290671726</v>
+        <v>333.9059732736965</v>
       </c>
       <c r="F43" t="n">
-        <v>291.4314293806311</v>
+        <v>259.701473587155</v>
       </c>
       <c r="G43" t="n">
-        <v>196.414040566719</v>
+        <v>164.6840847732427</v>
       </c>
       <c r="H43" t="n">
-        <v>91.15234580246916</v>
+        <v>91.1523458024693</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7594,25 +7594,25 @@
         <v>1910.149538657389</v>
       </c>
       <c r="S43" t="n">
-        <v>1791.149102295584</v>
+        <v>1759.419146502109</v>
       </c>
       <c r="T43" t="n">
-        <v>1642.067934676479</v>
+        <v>1610.337978883004</v>
       </c>
       <c r="U43" t="n">
-        <v>1425.650515613492</v>
+        <v>1393.920559820016</v>
       </c>
       <c r="V43" t="n">
-        <v>1243.651475218974</v>
+        <v>1211.921519425498</v>
       </c>
       <c r="W43" t="n">
-        <v>1026.919752993382</v>
+        <v>995.1897971999066</v>
       </c>
       <c r="X43" t="n">
-        <v>871.6156499067336</v>
+        <v>839.8856941132581</v>
       </c>
       <c r="Y43" t="n">
-        <v>723.5085185745723</v>
+        <v>691.7785627810968</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1867.05785304522</v>
+        <v>1503.254038370576</v>
       </c>
       <c r="C44" t="n">
-        <v>1570.780783916177</v>
+        <v>1206.976969241533</v>
       </c>
       <c r="D44" t="n">
-        <v>1285.200533120796</v>
+        <v>921.3967184461521</v>
       </c>
       <c r="E44" t="n">
-        <v>972.0977283339204</v>
+        <v>921.3967184461521</v>
       </c>
       <c r="F44" t="n">
-        <v>633.7972713556817</v>
+        <v>583.0962614679135</v>
       </c>
       <c r="G44" t="n">
-        <v>291.4102690120473</v>
+        <v>240.7092591242788</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3288.000600947634</v>
+        <v>3288.000600947635</v>
       </c>
       <c r="T44" t="n">
-        <v>3260.134676285667</v>
+        <v>3154.708301143225</v>
       </c>
       <c r="U44" t="n">
-        <v>3079.289647370872</v>
+        <v>2973.863272228431</v>
       </c>
       <c r="V44" t="n">
-        <v>3079.289647370872</v>
+        <v>2715.485832696228</v>
       </c>
       <c r="W44" t="n">
-        <v>2799.206439912126</v>
+        <v>2435.402625237483</v>
       </c>
       <c r="X44" t="n">
-        <v>2498.426129462415</v>
+        <v>2134.622314787772</v>
       </c>
       <c r="Y44" t="n">
-        <v>2180.972245297973</v>
+        <v>1817.168430623329</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7749,28 +7749,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>614.5455015557015</v>
+        <v>582.8155457622256</v>
       </c>
       <c r="C46" t="n">
-        <v>518.2947664391636</v>
+        <v>486.5648106456875</v>
       </c>
       <c r="D46" t="n">
-        <v>440.8635748381968</v>
+        <v>409.1336190447206</v>
       </c>
       <c r="E46" t="n">
-        <v>333.9059732736961</v>
+        <v>333.9059732736963</v>
       </c>
       <c r="F46" t="n">
-        <v>259.7014735871546</v>
+        <v>259.7014735871548</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6840847732425</v>
+        <v>164.6840847732426</v>
       </c>
       <c r="H46" t="n">
-        <v>91.15234580246916</v>
+        <v>91.15234580246924</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.6347488791189</v>
@@ -7840,16 +7840,16 @@
         <v>1425.650515613492</v>
       </c>
       <c r="V46" t="n">
-        <v>1243.651475218974</v>
+        <v>1243.651475218973</v>
       </c>
       <c r="W46" t="n">
         <v>1026.919752993382</v>
       </c>
       <c r="X46" t="n">
-        <v>871.6156499067336</v>
+        <v>839.8856941132578</v>
       </c>
       <c r="Y46" t="n">
-        <v>723.5085185745723</v>
+        <v>691.7785627810965</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>161.2833466331809</v>
+        <v>161.2833466331807</v>
       </c>
       <c r="K8" t="n">
-        <v>190.470899677261</v>
+        <v>190.4708996772606</v>
       </c>
       <c r="L8" t="n">
-        <v>199.0214867114933</v>
+        <v>199.0214867114928</v>
       </c>
       <c r="M8" t="n">
-        <v>189.4604205499964</v>
+        <v>189.4604205499959</v>
       </c>
       <c r="N8" t="n">
-        <v>187.8656757253951</v>
+        <v>187.8656757253946</v>
       </c>
       <c r="O8" t="n">
-        <v>190.8661912001299</v>
+        <v>190.8661912001294</v>
       </c>
       <c r="P8" t="n">
-        <v>197.7493741610376</v>
+        <v>197.7493741610372</v>
       </c>
       <c r="Q8" t="n">
-        <v>197.1608845168179</v>
+        <v>197.1608845168176</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>115.0671825723701</v>
+        <v>115.06718257237</v>
       </c>
       <c r="K9" t="n">
-        <v>117.7238752484542</v>
+        <v>117.7238752484539</v>
       </c>
       <c r="L9" t="n">
-        <v>111.5038326888315</v>
+        <v>111.5038326888312</v>
       </c>
       <c r="M9" t="n">
-        <v>110.5673213586503</v>
+        <v>110.5673213586499</v>
       </c>
       <c r="N9" t="n">
-        <v>98.93952256809766</v>
+        <v>98.93952256809727</v>
       </c>
       <c r="O9" t="n">
-        <v>112.9545713195521</v>
+        <v>112.9545713195518</v>
       </c>
       <c r="P9" t="n">
-        <v>110.1843514755399</v>
+        <v>110.1843514755396</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.0787517137822</v>
+        <v>124.078751713782</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>119.3562654747615</v>
+        <v>119.3562654747613</v>
       </c>
       <c r="M10" t="n">
-        <v>122.5532519960287</v>
+        <v>122.5532519960285</v>
       </c>
       <c r="N10" t="n">
-        <v>111.7023147290571</v>
+        <v>111.7023147290569</v>
       </c>
       <c r="O10" t="n">
-        <v>123.6934388297869</v>
+        <v>123.6934388297868</v>
       </c>
       <c r="P10" t="n">
-        <v>125.0956219182092</v>
+        <v>125.095621918209</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.104893954106956e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>40.02221890129539</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>142.7909896311547</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.048050535246148e-12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,13 +9878,13 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>306.6874953089263</v>
+        <v>274.8351763665443</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>40.02214132148788</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>306.6874953089248</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,16 +10355,16 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>287.0017854473924</v>
+        <v>402.5500016878939</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>2.160049916710705e-12</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>48.64666835963277</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>55.87771033587208</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958333</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515424</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>203.6483030940427</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>102.4006336413267</v>
       </c>
     </row>
     <row r="15">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>186.0644163557881</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23741,13 +23741,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>338.6518993993761</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>226.383618044985</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>73.79613500139854</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23981,10 +23981,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>342.6975793111181</v>
+        <v>110.9410800646407</v>
       </c>
       <c r="H20" t="n">
-        <v>69.75045508965654</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>301.5069543361337</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-5.858540938251863e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -25631,13 +25631,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>282.7244482874279</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>77.44132824047036</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25676,16 +25676,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.22916845492064</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>131.959376806365</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>179.0365786256468</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>11.94065264096525</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>309.9717767390066</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>50.19399978889089</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,13 +25916,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>104.3721113910176</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>255.7936651368797</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>875819.156276723</v>
+        <v>875819.1562767229</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>739113.2826606095</v>
+        <v>739113.2826606093</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>761609.1842749413</v>
+        <v>761609.1842749416</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>823069.0372213513</v>
+        <v>823069.0372213514</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>792798.504636328</v>
+        <v>792798.5046363281</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>765562.7686152883</v>
+        <v>765562.7686152884</v>
       </c>
     </row>
   </sheetData>
@@ -26314,13 +26314,13 @@
         <v>655421.0709736306</v>
       </c>
       <c r="C2" t="n">
-        <v>655421.0709736308</v>
+        <v>655421.0709736305</v>
       </c>
       <c r="D2" t="n">
-        <v>655435.8986404495</v>
+        <v>655435.8986404496</v>
       </c>
       <c r="E2" t="n">
-        <v>611624.8079118744</v>
+        <v>611624.8079118739</v>
       </c>
       <c r="F2" t="n">
         <v>611624.8079118741</v>
@@ -26329,10 +26329,10 @@
         <v>630568.7250607851</v>
       </c>
       <c r="H2" t="n">
-        <v>630568.7250607848</v>
+        <v>630568.7250607847</v>
       </c>
       <c r="I2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="J2" t="n">
         <v>656833.4158914265</v>
@@ -26341,19 +26341,19 @@
         <v>656833.4158914265</v>
       </c>
       <c r="L2" t="n">
-        <v>656833.4158914271</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="M2" t="n">
+        <v>656833.4158914267</v>
+      </c>
+      <c r="N2" t="n">
         <v>656833.4158914265</v>
-      </c>
-      <c r="N2" t="n">
-        <v>656833.4158914267</v>
       </c>
       <c r="O2" t="n">
         <v>633898.0592421303</v>
       </c>
       <c r="P2" t="n">
-        <v>633898.05924213</v>
+        <v>633898.0592421303</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49603.99004265009</v>
+        <v>49603.99004265069</v>
       </c>
       <c r="E3" t="n">
-        <v>1114814.601112467</v>
+        <v>1114814.601112466</v>
       </c>
       <c r="F3" t="n">
-        <v>2.842170943040401e-11</v>
+        <v>9.619088814361021e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>16999.20777899418</v>
+        <v>16999.20777899431</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28261.8516171634</v>
+        <v>28261.85161716337</v>
       </c>
       <c r="J3" t="n">
-        <v>40637.45238225412</v>
+        <v>40637.45238225415</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16999.20777899416</v>
+        <v>16999.20777899431</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927243</v>
+        <v>202168.0999927241</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>457775.3608255375</v>
       </c>
       <c r="D4" t="n">
-        <v>438929.2150975103</v>
+        <v>438929.2150975101</v>
       </c>
       <c r="E4" t="n">
-        <v>60655.3332736477</v>
+        <v>60655.33327364783</v>
       </c>
       <c r="F4" t="n">
         <v>60655.33327364775</v>
       </c>
       <c r="G4" t="n">
-        <v>74063.98968944914</v>
+        <v>74063.98968944926</v>
       </c>
       <c r="H4" t="n">
-        <v>74063.98968944914</v>
+        <v>74063.9896894492</v>
       </c>
       <c r="I4" t="n">
-        <v>91700.40398688403</v>
+        <v>91700.40398688405</v>
       </c>
       <c r="J4" t="n">
         <v>91012.35309462837</v>
       </c>
       <c r="K4" t="n">
+        <v>91012.35309462827</v>
+      </c>
+      <c r="L4" t="n">
         <v>91012.35309462834</v>
       </c>
-      <c r="L4" t="n">
-        <v>91012.35309462831</v>
-      </c>
       <c r="M4" t="n">
+        <v>92793.84288319405</v>
+      </c>
+      <c r="N4" t="n">
         <v>92793.84288319408</v>
       </c>
-      <c r="N4" t="n">
-        <v>92793.84288319407</v>
-      </c>
       <c r="O4" t="n">
+        <v>76430.40983090377</v>
+      </c>
+      <c r="P4" t="n">
         <v>76430.40983090381</v>
-      </c>
-      <c r="P4" t="n">
-        <v>76430.40983090384</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34890.26850253472</v>
+        <v>34890.26850253474</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178172</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="G5" t="n">
-        <v>80041.87632024709</v>
+        <v>80041.8763202471</v>
       </c>
       <c r="H5" t="n">
-        <v>80041.87632024709</v>
+        <v>80041.8763202471</v>
       </c>
       <c r="I5" t="n">
-        <v>86503.64721582715</v>
+        <v>86503.64721582716</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26500,16 +26500,16 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>80355.8275443267</v>
+        <v>80355.82754432672</v>
       </c>
       <c r="P5" t="n">
-        <v>80355.8275443267</v>
+        <v>80355.82754432672</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164018.1101480932</v>
+        <v>164013.6965702251</v>
       </c>
       <c r="C6" t="n">
-        <v>164018.1101480933</v>
+        <v>164013.6965702249</v>
       </c>
       <c r="D6" t="n">
-        <v>132012.4249977544</v>
+        <v>132008.0577563448</v>
       </c>
       <c r="E6" t="n">
-        <v>-642100.6197960218</v>
+        <v>-642241.8966959576</v>
       </c>
       <c r="F6" t="n">
-        <v>472713.9813164447</v>
+        <v>472572.7044165085</v>
       </c>
       <c r="G6" t="n">
-        <v>459463.6512720946</v>
+        <v>459381.5741132486</v>
       </c>
       <c r="H6" t="n">
-        <v>476462.8590510886</v>
+        <v>476380.7818922427</v>
       </c>
       <c r="I6" t="n">
-        <v>450367.5130715522</v>
+        <v>450367.513071552</v>
       </c>
       <c r="J6" t="n">
-        <v>435805.668739738</v>
+        <v>435805.6687397378</v>
       </c>
       <c r="K6" t="n">
         <v>476443.1211219921</v>
       </c>
       <c r="L6" t="n">
-        <v>459443.9133429985</v>
+        <v>459443.9133429977</v>
       </c>
       <c r="M6" t="n">
-        <v>279352.8757092583</v>
+        <v>279352.8757092587</v>
       </c>
       <c r="N6" t="n">
-        <v>481520.9757019828</v>
+        <v>481520.9757019826</v>
       </c>
       <c r="O6" t="n">
-        <v>477111.8218668997</v>
+        <v>477040.1488773708</v>
       </c>
       <c r="P6" t="n">
-        <v>477111.8218668994</v>
+        <v>477040.1488773706</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F2" t="n">
         <v>46.97513661859254</v>
       </c>
       <c r="G2" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="H2" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="I2" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="N2" t="n">
         <v>97.68472022810502</v>
       </c>
       <c r="O2" t="n">
-        <v>71.95859333325521</v>
+        <v>71.9585933332551</v>
       </c>
       <c r="P2" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325515</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076709</v>
+        <v>57.92057351076779</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
@@ -26808,7 +26808,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>937.6805819743333</v>
+        <v>937.6805819743336</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21.24900972374273</v>
+        <v>21.24900972374289</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.72612689484981</v>
+        <v>25.72612689484993</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.2490097237427</v>
+        <v>21.24900972374289</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951251</v>
+        <v>50.70958360951231</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076709</v>
+        <v>57.92057351076779</v>
       </c>
       <c r="E3" t="n">
-        <v>1031.856127082531</v>
+        <v>1031.85612708253</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.2791265720405</v>
+        <v>106.2791265720407</v>
       </c>
       <c r="J4" t="n">
-        <v>76.6558792342812</v>
+        <v>76.65587923428097</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959706</v>
+        <v>648.4664495959707</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374273</v>
+        <v>21.24900972374289</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.72612689484981</v>
+        <v>25.72612689484993</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.090162624442</v>
+        <v>337.0901626244419</v>
       </c>
       <c r="I8" t="n">
-        <v>201.4990738507121</v>
+        <v>201.4990738507119</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>135.2425723098101</v>
+        <v>135.2425723098099</v>
       </c>
       <c r="S8" t="n">
-        <v>203.7140793596057</v>
+        <v>203.7140793596056</v>
       </c>
       <c r="T8" t="n">
         <v>222.0765638936052</v>
@@ -27950,7 +27950,7 @@
         <v>111.032226284886</v>
       </c>
       <c r="I9" t="n">
-        <v>85.1072318885894</v>
+        <v>85.10723188858935</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>92.42270548643162</v>
+        <v>92.42270548643154</v>
       </c>
       <c r="S9" t="n">
         <v>169.3690802659312</v>
@@ -28032,10 +28032,10 @@
         <v>152.3094707112973</v>
       </c>
       <c r="J10" t="n">
-        <v>85.97478175284924</v>
+        <v>85.97478175284915</v>
       </c>
       <c r="K10" t="n">
-        <v>10.13465691657788</v>
+        <v>10.13465691657774</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.41603665156856</v>
+        <v>77.41603665156845</v>
       </c>
       <c r="R10" t="n">
-        <v>172.5970773348047</v>
+        <v>172.5970773348046</v>
       </c>
       <c r="S10" t="n">
         <v>222.1963728005765</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="14">
@@ -28345,7 +28345,7 @@
         <v>46.97513661859254</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="C17" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="D17" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="E17" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="F17" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="G17" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="H17" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="T17" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="U17" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="V17" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="W17" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="X17" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
     </row>
     <row r="18">
@@ -28719,37 +28719,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="C19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="D19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="E19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="F19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="G19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="H19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="I19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>28.91388186835675</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>28.91388186835474</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="S19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="T19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="U19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="V19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="W19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="X19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233543</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="C20" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="D20" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="E20" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="F20" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="G20" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="H20" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="T20" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="U20" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="V20" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="W20" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="X20" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="C22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="D22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="E22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="F22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="G22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="H22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="I22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>28.91388186835678</v>
+        <v>28.91388186835565</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="S22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="T22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="U22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="V22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="W22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="X22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233536</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="C23" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="D23" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="E23" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="F23" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="G23" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="H23" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="T23" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="U23" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="V23" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="W23" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="X23" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="C25" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="D25" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="E25" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="F25" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="G25" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="H25" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="I25" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29235,34 +29235,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>28.91388186835769</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>28.91388186835835</v>
       </c>
       <c r="R25" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="S25" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="T25" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="U25" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="V25" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="W25" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="X25" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233525</v>
       </c>
     </row>
     <row r="26">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859398</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810502</v>
+        <v>55.4777819637122</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H37" t="n">
-        <v>45.39291458738647</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="38">
@@ -30378,13 +30378,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D40" t="n">
-        <v>55.47778196371112</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E40" t="n">
         <v>97.68472022810502</v>
@@ -30396,10 +30396,10 @@
         <v>97.68472022810502</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810502</v>
+        <v>45.39291458738624</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,16 +30426,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>97.68472022810502</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>97.68472022810502</v>
@@ -30444,10 +30444,10 @@
         <v>97.68472022810502</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.9585933332551</v>
       </c>
       <c r="C41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.9585933332551</v>
       </c>
       <c r="D41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.9585933332551</v>
       </c>
       <c r="E41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.9585933332551</v>
       </c>
       <c r="F41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.9585933332551</v>
       </c>
       <c r="G41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.9585933332551</v>
       </c>
       <c r="H41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.9585933332551</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.9585933332551</v>
       </c>
       <c r="T41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.9585933332551</v>
       </c>
       <c r="U41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.9585933332551</v>
       </c>
       <c r="V41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.9585933332551</v>
       </c>
       <c r="W41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.9585933332551</v>
       </c>
       <c r="X41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.9585933332551</v>
       </c>
       <c r="Y41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.9585933332551</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.9585933332551</v>
       </c>
       <c r="C43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.9585933332551</v>
       </c>
       <c r="D43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.9585933332551</v>
       </c>
       <c r="E43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.9585933332551</v>
       </c>
       <c r="F43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.9585933332551</v>
       </c>
       <c r="G43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.9585933332551</v>
       </c>
       <c r="H43" t="n">
-        <v>40.54593709771345</v>
+        <v>71.9585933332551</v>
       </c>
       <c r="I43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.9585933332551</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.9585933332551</v>
       </c>
       <c r="S43" t="n">
-        <v>71.95859333325521</v>
+        <v>40.54593709771493</v>
       </c>
       <c r="T43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.9585933332551</v>
       </c>
       <c r="U43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.9585933332551</v>
       </c>
       <c r="V43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.9585933332551</v>
       </c>
       <c r="W43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.9585933332551</v>
       </c>
       <c r="X43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.9585933332551</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.9585933332551</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="C44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="D44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="E44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="F44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="G44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="H44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="T44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="U44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="V44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="W44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="X44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="Y44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325515</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="C46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="D46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="E46" t="n">
-        <v>40.54593709771349</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="F46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="G46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="H46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="I46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="S46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="T46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="U46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="V46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="W46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="X46" t="n">
-        <v>71.95859333325521</v>
+        <v>40.5459370977145</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325515</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2328465266764504</v>
+        <v>0.2328465266764533</v>
       </c>
       <c r="H8" t="n">
-        <v>2.384639491325199</v>
+        <v>2.384639491325228</v>
       </c>
       <c r="I8" t="n">
-        <v>8.976815719693864</v>
+        <v>8.976815719693972</v>
       </c>
       <c r="J8" t="n">
-        <v>19.7625578935054</v>
+        <v>19.76255789350564</v>
       </c>
       <c r="K8" t="n">
-        <v>29.61895136771956</v>
+        <v>29.61895136771991</v>
       </c>
       <c r="L8" t="n">
-        <v>36.74492825849399</v>
+        <v>36.74492825849443</v>
       </c>
       <c r="M8" t="n">
-        <v>40.88581267727631</v>
+        <v>40.8858126772768</v>
       </c>
       <c r="N8" t="n">
-        <v>41.54738787119577</v>
+        <v>41.54738787119628</v>
       </c>
       <c r="O8" t="n">
-        <v>39.23202022155682</v>
+        <v>39.23202022155729</v>
       </c>
       <c r="P8" t="n">
-        <v>33.48362159423195</v>
+        <v>33.48362159423235</v>
       </c>
       <c r="Q8" t="n">
-        <v>25.14480535763155</v>
+        <v>25.14480535763186</v>
       </c>
       <c r="R8" t="n">
-        <v>14.62654563133959</v>
+        <v>14.62654563133977</v>
       </c>
       <c r="S8" t="n">
-        <v>5.30599022663962</v>
+        <v>5.305990226639683</v>
       </c>
       <c r="T8" t="n">
-        <v>1.019285670526162</v>
+        <v>1.019285670526175</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01862772213411603</v>
+        <v>0.01862772213411626</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1245838750986311</v>
+        <v>0.1245838750986326</v>
       </c>
       <c r="H9" t="n">
-        <v>1.203217951610464</v>
+        <v>1.203217951610478</v>
       </c>
       <c r="I9" t="n">
-        <v>4.289400962825677</v>
+        <v>4.289400962825728</v>
       </c>
       <c r="J9" t="n">
-        <v>11.77044409429655</v>
+        <v>11.77044409429669</v>
       </c>
       <c r="K9" t="n">
-        <v>20.11756372590483</v>
+        <v>20.11756372590508</v>
       </c>
       <c r="L9" t="n">
-        <v>27.05054709104269</v>
+        <v>27.05054709104301</v>
       </c>
       <c r="M9" t="n">
-        <v>31.56671256336806</v>
+        <v>31.56671256336844</v>
       </c>
       <c r="N9" t="n">
-        <v>32.40218951523564</v>
+        <v>32.40218951523603</v>
       </c>
       <c r="O9" t="n">
-        <v>29.64167312489229</v>
+        <v>29.64167312489264</v>
       </c>
       <c r="P9" t="n">
-        <v>23.79005593879036</v>
+        <v>23.79005593879064</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.9030223722393</v>
+        <v>15.90302237223949</v>
       </c>
       <c r="R9" t="n">
-        <v>7.735128666211502</v>
+        <v>7.735128666211596</v>
       </c>
       <c r="S9" t="n">
-        <v>2.314090837906589</v>
+        <v>2.314090837906617</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5021604439282541</v>
+        <v>0.5021604439282602</v>
       </c>
       <c r="U9" t="n">
-        <v>0.008196307572278365</v>
+        <v>0.008196307572278464</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1044469358390882</v>
+        <v>0.1044469358390894</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9286282113693484</v>
+        <v>0.9286282113693596</v>
       </c>
       <c r="I10" t="n">
-        <v>3.141004215960944</v>
+        <v>3.141004215960982</v>
       </c>
       <c r="J10" t="n">
-        <v>7.384398363823534</v>
+        <v>7.384398363823623</v>
       </c>
       <c r="K10" t="n">
-        <v>12.13483490930497</v>
+        <v>12.13483490930512</v>
       </c>
       <c r="L10" t="n">
-        <v>15.5284108064768</v>
+        <v>15.52841080647699</v>
       </c>
       <c r="M10" t="n">
-        <v>16.37253195157634</v>
+        <v>16.37253195157654</v>
       </c>
       <c r="N10" t="n">
-        <v>15.98322973617612</v>
+        <v>15.98322973617631</v>
       </c>
       <c r="O10" t="n">
-        <v>14.76309962205585</v>
+        <v>14.76309962205603</v>
       </c>
       <c r="P10" t="n">
-        <v>12.63238213093844</v>
+        <v>12.63238213093859</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.746006600125831</v>
+        <v>8.746006600125936</v>
       </c>
       <c r="R10" t="n">
-        <v>4.696314042364818</v>
+        <v>4.696314042364875</v>
       </c>
       <c r="S10" t="n">
-        <v>1.820225236395745</v>
+        <v>1.820225236395767</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4462732713124676</v>
+        <v>0.446273271312473</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005697105591222999</v>
+        <v>0.005697105591223067</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837924</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33503,7 +33503,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138802</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233474</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837924</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34220,7 +34220,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
         <v>557.7086478970249</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165873</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
         <v>391.8320827861326</v>
@@ -35583,7 +35583,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564862</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
         <v>366.7325087887907</v>
@@ -35814,10 +35814,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
         <v>281.932207763703</v>
@@ -36042,10 +36042,10 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>234.9615414126763</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>348.6712540385528</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
@@ -36282,7 +36282,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>348.6712540385549</v>
+        <v>348.6712540385537</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
@@ -36361,7 +36361,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>495.6123332936273</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302265</v>
@@ -36370,16 +36370,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>541.5529758505263</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36531,10 +36531,10 @@
         <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>263.8709530134681</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>107.308120406252</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,13 +36598,13 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>858.9893307218375</v>
+        <v>827.1370117794555</v>
       </c>
       <c r="O26" t="n">
         <v>508.053000888219</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004591</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>377.2134278768883</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>845.6086111391515</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37075,16 +37075,16 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>825.922901277619</v>
+        <v>941.4711175181204</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037194</v>
@@ -37151,7 +37151,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013291</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165871</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K34" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
         <v>394.6085160120763</v>
@@ -37239,13 +37239,13 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
         <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564876</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37321,13 +37321,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193738</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004591</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597746</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37780,7 +37780,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554011</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923319</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525805</v>
@@ -38020,7 +38020,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923326</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302265</v>
@@ -38035,7 +38035,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037199</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222472</v>
